--- a/experiments/capital/bert-base-uncased_15/67/word_level_error_type_summary.xlsx
+++ b/experiments/capital/bert-base-uncased_15/67/word_level_error_type_summary.xlsx
@@ -443,31 +443,31 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Wrong_Tag_S_as_B</t>
         </is>
       </c>
       <c r="B7" t="n">
